--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2691.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2691.xlsx
@@ -354,7 +354,7 @@
         <v>2.418913230818461</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.333889665102222</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2691.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2691.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162645268390178</v>
+        <v>0.9528933763504028</v>
       </c>
       <c r="B1">
-        <v>2.418913230818461</v>
+        <v>1.770101189613342</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.974975109100342</v>
       </c>
       <c r="D1">
-        <v>2.333889665102222</v>
+        <v>2.182043552398682</v>
       </c>
       <c r="E1">
-        <v>1.215428138103963</v>
+        <v>1.369734287261963</v>
       </c>
     </row>
   </sheetData>
